--- a/MATLAB-git/ninja_pick_and_place/FunctionList.xlsx
+++ b/MATLAB-git/ninja_pick_and_place/FunctionList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="ninja_main_code_2_suction.m" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -499,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/MATLAB-git/ninja_pick_and_place/FunctionList.xlsx
+++ b/MATLAB-git/ninja_pick_and_place/FunctionList.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14580" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ninja_main_code_2_suction.m" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="spawn_and_grasp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>関数名</t>
     <rPh sb="0" eb="2">
@@ -102,6 +102,54 @@
   <si>
     <t>res_tab_setpos</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_cube_gen_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_cube_gen_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cube0_handle</t>
+  </si>
+  <si>
+    <t>cube1_handle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_cube0_remove</t>
+  </si>
+  <si>
+    <t>res_cube1_remove</t>
+  </si>
+  <si>
+    <t>res_rob_remove</t>
+  </si>
+  <si>
+    <t>res_con_remove</t>
+  </si>
+  <si>
+    <t>res_cube0_handle</t>
+  </si>
+  <si>
+    <t>res_cube1_handle</t>
+  </si>
+  <si>
+    <t>res_sensor_handle</t>
+  </si>
+  <si>
+    <t>Proximity_sensor_handle</t>
+  </si>
+  <si>
+    <t>res_read_sensor</t>
+  </si>
+  <si>
+    <t>detectedPoint</t>
+  </si>
+  <si>
+    <t>PSsensor_distance</t>
   </si>
 </sst>
 </file>
@@ -433,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -497,13 +545,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A10"/>
+  <dimension ref="A2:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -548,6 +599,86 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
